--- a/Dialog/Drama/_tutorial.xlsx
+++ b/Dialog/Drama/_tutorial.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="index" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="nerun" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="index" sheetId="1" r:id="rId5"/>
+    <sheet state="visible" name="nerun" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="798">
   <si>
     <t>version</t>
   </si>
@@ -50,6 +50,9 @@
     <t xml:space="preserve">A Journey Begins </t>
   </si>
   <si>
+    <t>Khởi đầu chuyến phiêu lưu</t>
+  </si>
+  <si>
     <t>tool</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
     <t>Using Tool</t>
   </si>
   <si>
+    <t>Sử dụng công cụ</t>
+  </si>
+  <si>
     <t>middle_click</t>
   </si>
   <si>
@@ -68,6 +74,9 @@
     <t>Very Important Stuff</t>
   </si>
   <si>
+    <t>Điều cực kỳ quan trọng</t>
+  </si>
+  <si>
     <t>eq</t>
   </si>
   <si>
@@ -77,6 +86,9 @@
     <t>Equipment</t>
   </si>
   <si>
+    <t>Trang bị</t>
+  </si>
+  <si>
     <t>food</t>
   </si>
   <si>
@@ -86,6 +98,9 @@
     <t>Food</t>
   </si>
   <si>
+    <t>Thức ăn</t>
+  </si>
+  <si>
     <t>process</t>
   </si>
   <si>
@@ -95,6 +110,9 @@
     <t>Processed Resource</t>
   </si>
   <si>
+    <t>Nguyên liệu chế biến</t>
+  </si>
+  <si>
     <t>hardness</t>
   </si>
   <si>
@@ -104,6 +122,9 @@
     <t>Material Hardness</t>
   </si>
   <si>
+    <t>Độ cứng của vật liệu</t>
+  </si>
+  <si>
     <t>sleep</t>
   </si>
   <si>
@@ -113,6 +134,9 @@
     <t>Sleep and Rest</t>
   </si>
   <si>
+    <t>Ngủ và Nghỉ ngơi</t>
+  </si>
+  <si>
     <t>herb</t>
   </si>
   <si>
@@ -122,6 +146,9 @@
     <t>Item Trait</t>
   </si>
   <si>
+    <t>Đặc tính vật phẩm</t>
+  </si>
+  <si>
     <t>region</t>
   </si>
   <si>
@@ -131,6 +158,9 @@
     <t>Global Map</t>
   </si>
   <si>
+    <t>Bản đồ thế giới</t>
+  </si>
+  <si>
     <t>feat</t>
   </si>
   <si>
@@ -140,6 +170,9 @@
     <t>Growth and Feat</t>
   </si>
   <si>
+    <t>Tăng trưởng và Feat</t>
+  </si>
+  <si>
     <t>fame</t>
   </si>
   <si>
@@ -149,6 +182,9 @@
     <t>Fame</t>
   </si>
   <si>
+    <t>Danh tiếng</t>
+  </si>
+  <si>
     <t>karma</t>
   </si>
   <si>
@@ -167,6 +203,9 @@
     <t>Criminal</t>
   </si>
   <si>
+    <t>Tội phạm</t>
+  </si>
+  <si>
     <t>healer</t>
   </si>
   <si>
@@ -176,6 +215,9 @@
     <t>Weakness and Restoration</t>
   </si>
   <si>
+    <t>Suy yếu và Hồi phục</t>
+  </si>
+  <si>
     <t>rust</t>
   </si>
   <si>
@@ -185,6 +227,9 @@
     <t>Acid Damage to Equipment</t>
   </si>
   <si>
+    <t>Trang bị bị ăn mòn bởi Axit</t>
+  </si>
+  <si>
     <t>faith</t>
   </si>
   <si>
@@ -194,6 +239,9 @@
     <t>Faith and Praying</t>
   </si>
   <si>
+    <t>Tín ngưỡng và Cầu nguyện</t>
+  </si>
+  <si>
     <t>death</t>
   </si>
   <si>
@@ -203,6 +251,9 @@
     <t>Death and Penalty</t>
   </si>
   <si>
+    <t>Cái chết và Hình phạt</t>
+  </si>
+  <si>
     <t>death_pet</t>
   </si>
   <si>
@@ -212,6 +263,9 @@
     <t>Reviving Pets and Residents</t>
   </si>
   <si>
+    <t>Hồi sinh đồng hành và cư dân</t>
+  </si>
+  <si>
     <t>death_penalty</t>
   </si>
   <si>
@@ -221,6 +275,9 @@
     <t>Childhood's End</t>
   </si>
   <si>
+    <t>Kết thúc thời thơ ấu</t>
+  </si>
+  <si>
     <t>water</t>
   </si>
   <si>
@@ -230,6 +287,9 @@
     <t>Dangerous Water</t>
   </si>
   <si>
+    <t>Nguồn nước nguy hiểm</t>
+  </si>
+  <si>
     <t>field</t>
   </si>
   <si>
@@ -239,6 +299,9 @@
     <t>Field Effect</t>
   </si>
   <si>
+    <t>Hiệu ứng môi trường</t>
+  </si>
+  <si>
     <t>ether</t>
   </si>
   <si>
@@ -248,6 +311,9 @@
     <t>Ether Disease</t>
   </si>
   <si>
+    <t>Bệnh Ether</t>
+  </si>
+  <si>
     <t>tinker</t>
   </si>
   <si>
@@ -257,6 +323,9 @@
     <t>Tinker's Camp</t>
   </si>
   <si>
+    <t>Trạm dừng của thợ cơ khí</t>
+  </si>
+  <si>
     <t>town</t>
   </si>
   <si>
@@ -266,6 +335,9 @@
     <t>Towns</t>
   </si>
   <si>
+    <t>Thành trấn</t>
+  </si>
+  <si>
     <t>influence</t>
   </si>
   <si>
@@ -275,6 +347,9 @@
     <t>Influence</t>
   </si>
   <si>
+    <t>Mức độ ảnh hưởng</t>
+  </si>
+  <si>
     <t>deliver_box</t>
   </si>
   <si>
@@ -284,6 +359,9 @@
     <t>Delivery Box</t>
   </si>
   <si>
+    <t>Hòm giao hàng</t>
+  </si>
+  <si>
     <t>stone</t>
   </si>
   <si>
@@ -302,6 +380,9 @@
     <t>Work and Hobbies</t>
   </si>
   <si>
+    <t>Công việc và Sở thích</t>
+  </si>
+  <si>
     <t>pasture</t>
   </si>
   <si>
@@ -311,6 +392,9 @@
     <t>Pasture and Livestock</t>
   </si>
   <si>
+    <t>Đồng cỏ và Gia súc</t>
+  </si>
+  <si>
     <t>garbage</t>
   </si>
   <si>
@@ -320,6 +404,9 @@
     <t>Garbage Problem</t>
   </si>
   <si>
+    <t>Vấn đề rác thải</t>
+  </si>
+  <si>
     <t>season</t>
   </si>
   <si>
@@ -329,12 +416,18 @@
     <t>Season</t>
   </si>
   <si>
+    <t>Mùa</t>
+  </si>
+  <si>
     <t>demo</t>
   </si>
   <si>
     <t>Nerun demo</t>
   </si>
   <si>
+    <t>Bản demo của Nerun</t>
+  </si>
+  <si>
     <t>season2</t>
   </si>
   <si>
@@ -344,6 +437,9 @@
     <t>Winter Warning</t>
   </si>
   <si>
+    <t>Cảnh báo mùa đông</t>
+  </si>
+  <si>
     <t>worldend</t>
   </si>
   <si>
@@ -351,6 +447,9 @@
   </si>
   <si>
     <t>The Hour of Ragnarok</t>
+  </si>
+  <si>
+    <t>Giờ khắc Ragnarok</t>
   </si>
   <si>
     <t>jump</t>
@@ -3184,11 +3283,14 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -3196,9 +3298,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -3223,6 +3322,10 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3513,7 +3616,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
@@ -3528,16 +3631,16 @@
         <v>8</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -3559,16 +3662,16 @@
         <v>8</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -3601,16 +3704,16 @@
         <v>8</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -3643,16 +3746,16 @@
         <v>8</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -3685,16 +3788,16 @@
         <v>8</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
@@ -3709,16 +3812,16 @@
         <v>8</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
@@ -3733,16 +3836,16 @@
         <v>8</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -3775,16 +3878,16 @@
         <v>8</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -3806,16 +3909,16 @@
         <v>8</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
@@ -3830,16 +3933,16 @@
         <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
@@ -3854,16 +3957,16 @@
         <v>8</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
@@ -3878,16 +3981,16 @@
         <v>8</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>47</v>
+        <v>59</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
@@ -3902,16 +4005,16 @@
         <v>8</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
@@ -3926,16 +4029,16 @@
         <v>8</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
@@ -3950,16 +4053,16 @@
         <v>8</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -3974,16 +4077,16 @@
         <v>8</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -3998,16 +4101,16 @@
         <v>8</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
@@ -4022,16 +4125,16 @@
         <v>8</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>64</v>
+        <v>80</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
@@ -4046,16 +4149,16 @@
         <v>8</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>67</v>
+        <v>84</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
@@ -4070,16 +4173,16 @@
         <v>8</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>70</v>
+        <v>88</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -4094,16 +4197,16 @@
         <v>8</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>73</v>
+        <v>92</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>74</v>
+        <v>94</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
@@ -4118,16 +4221,16 @@
         <v>8</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
@@ -4142,16 +4245,16 @@
         <v>8</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>80</v>
+        <v>100</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>102</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
@@ -4166,16 +4269,16 @@
         <v>8</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>83</v>
+        <v>106</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -4197,16 +4300,16 @@
         <v>8</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>86</v>
+        <v>110</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -4228,16 +4331,16 @@
         <v>8</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>89</v>
+        <v>113</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
@@ -4252,16 +4355,16 @@
         <v>8</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -4283,16 +4386,16 @@
         <v>8</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>95</v>
+        <v>120</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
@@ -4307,16 +4410,16 @@
         <v>8</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G34" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>98</v>
+        <v>124</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
@@ -4331,16 +4434,16 @@
         <v>8</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>101</v>
+        <v>129</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -4362,16 +4465,16 @@
         <v>8</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>104</v>
+        <v>133</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -4393,16 +4496,16 @@
         <v>8</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
@@ -4417,16 +4520,16 @@
         <v>8</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
@@ -4441,16 +4544,16 @@
         <v>8</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
@@ -13130,8 +13233,7 @@
     <col customWidth="1" min="7" max="8" width="6.71"/>
     <col customWidth="1" min="9" max="9" width="74.86"/>
     <col customWidth="1" min="10" max="10" width="88.14"/>
-    <col customWidth="1" min="11" max="11" width="80.57"/>
-    <col customWidth="1" min="12" max="26" width="9.0"/>
+    <col customWidth="1" min="11" max="26" width="9.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -13139,19 +13241,19 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -13213,10 +13315,10 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -13229,7 +13331,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
@@ -13245,10 +13347,10 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -13261,10 +13363,10 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -13275,7 +13377,7 @@
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -13312,7 +13414,7 @@
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -13335,14 +13437,12 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>127</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="1"/>
@@ -13356,13 +13456,13 @@
         <v>233.0</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>130</v>
+        <v>162</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
@@ -13377,13 +13477,13 @@
         <v>234.0</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>133</v>
+        <v>164</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
@@ -13398,13 +13498,13 @@
         <v>235.0</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>136</v>
+        <v>167</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
@@ -13419,13 +13519,13 @@
         <v>236.0</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>139</v>
+        <v>170</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
@@ -13440,13 +13540,13 @@
         <v>327.0</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>142</v>
+        <v>173</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
@@ -13459,7 +13559,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="11"/>
+      <c r="J19" s="12"/>
       <c r="K19" s="1"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
@@ -13472,13 +13572,13 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="11"/>
+      <c r="J20" s="12"/>
       <c r="K20" s="1"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -13492,7 +13592,7 @@
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -13517,13 +13617,13 @@
         <v>220.0</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>145</v>
+        <v>177</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
@@ -13538,13 +13638,13 @@
         <v>221.0</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
@@ -13559,13 +13659,13 @@
         <v>222.0</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>148</v>
+        <v>180</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>181</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -13580,13 +13680,13 @@
         <v>223.0</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>151</v>
+        <v>183</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
@@ -13601,13 +13701,13 @@
         <v>224.0</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>154</v>
+        <v>186</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
@@ -13622,13 +13722,13 @@
         <v>225.0</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>157</v>
+        <v>189</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>190</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>158</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
@@ -13643,13 +13743,13 @@
         <v>226.0</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>160</v>
+        <v>192</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>193</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
@@ -13664,13 +13764,13 @@
         <v>227.0</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>127</v>
+        <v>160</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
@@ -13685,13 +13785,13 @@
         <v>228.0</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>163</v>
+        <v>195</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>196</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
@@ -13706,19 +13806,19 @@
         <v>229.0</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>166</v>
+        <v>198</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -13732,7 +13832,7 @@
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -13757,13 +13857,13 @@
         <v>200.0</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>169</v>
+        <v>201</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>202</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
@@ -13778,13 +13878,13 @@
         <v>201.0</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>172</v>
+        <v>204</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>205</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
@@ -13799,13 +13899,13 @@
         <v>202.0</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="J37" s="11" t="s">
-        <v>175</v>
+        <v>207</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
@@ -13820,13 +13920,13 @@
         <v>203.0</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="J38" s="11" t="s">
-        <v>178</v>
+        <v>210</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>211</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
@@ -13841,13 +13941,13 @@
         <v>204.0</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="J39" s="11" t="s">
-        <v>181</v>
+        <v>213</v>
+      </c>
+      <c r="J39" s="12" t="s">
+        <v>214</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" ht="12.75" customHeight="1">
@@ -13862,13 +13962,13 @@
         <v>205.0</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>184</v>
+        <v>216</v>
+      </c>
+      <c r="J40" s="12" t="s">
+        <v>217</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" ht="12.75" customHeight="1">
@@ -13883,13 +13983,13 @@
         <v>206.0</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="J41" s="11" t="s">
-        <v>187</v>
+        <v>219</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>188</v>
+        <v>221</v>
       </c>
     </row>
     <row r="42" ht="12.75" customHeight="1">
@@ -13904,13 +14004,13 @@
         <v>207.0</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="J42" s="11" t="s">
-        <v>190</v>
+        <v>222</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>223</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" ht="12.75" customHeight="1">
@@ -13925,19 +14025,19 @@
         <v>208.0</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -13964,7 +14064,7 @@
     </row>
     <row r="46" ht="12.75" customHeight="1">
       <c r="A46" s="4" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -13989,13 +14089,13 @@
         <v>210.0</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="J47" s="11" t="s">
-        <v>193</v>
+        <v>225</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
     </row>
     <row r="48" ht="12.75" customHeight="1">
@@ -14010,13 +14110,13 @@
         <v>211.0</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="J48" s="11" t="s">
-        <v>196</v>
+        <v>228</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>229</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" ht="12.75" customHeight="1">
@@ -14029,7 +14129,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="11"/>
+      <c r="J49" s="12"/>
       <c r="K49" s="1"/>
     </row>
     <row r="50" ht="12.75" customHeight="1">
@@ -14048,7 +14148,7 @@
     <row r="51" ht="12.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -14075,7 +14175,7 @@
     </row>
     <row r="53" ht="12.75" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -14115,13 +14215,13 @@
         <v>193.0</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="K54" s="5" t="s">
-        <v>200</v>
+        <v>231</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -14151,13 +14251,13 @@
         <v>194.0</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="J55" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>203</v>
+        <v>234</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -14187,13 +14287,13 @@
         <v>195.0</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="J56" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>206</v>
+        <v>237</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>239</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -14223,13 +14323,13 @@
         <v>196.0</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="J57" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="K57" s="5" t="s">
-        <v>209</v>
+        <v>240</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -14259,13 +14359,13 @@
         <v>197.0</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="J58" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>212</v>
+        <v>243</v>
+      </c>
+      <c r="J58" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -14295,13 +14395,13 @@
         <v>198.0</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="J59" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="K59" s="5" t="s">
-        <v>215</v>
+        <v>246</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>248</v>
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
@@ -14331,13 +14431,13 @@
         <v>199.0</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="J60" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="K60" s="5" t="s">
-        <v>218</v>
+        <v>249</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
@@ -14365,7 +14465,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="4"/>
-      <c r="J61" s="11"/>
+      <c r="J61" s="12"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -14414,7 +14514,7 @@
     <row r="63" ht="12.75" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -14456,7 +14556,7 @@
     </row>
     <row r="65" ht="12.75" customHeight="1">
       <c r="A65" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -14496,13 +14596,13 @@
         <v>184.0</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="J66" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="K66" s="5" t="s">
-        <v>221</v>
+        <v>252</v>
+      </c>
+      <c r="J66" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -14532,13 +14632,13 @@
         <v>185.0</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="J67" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="K67" s="5" t="s">
-        <v>224</v>
+        <v>255</v>
+      </c>
+      <c r="J67" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>257</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -14568,13 +14668,13 @@
         <v>186.0</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="J68" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="K68" s="5" t="s">
-        <v>227</v>
+        <v>258</v>
+      </c>
+      <c r="J68" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="K68" s="8" t="s">
+        <v>260</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
@@ -14604,13 +14704,13 @@
         <v>187.0</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="J69" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="K69" s="5" t="s">
-        <v>230</v>
+        <v>261</v>
+      </c>
+      <c r="J69" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>263</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
@@ -14640,13 +14740,13 @@
         <v>188.0</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="K70" s="5" t="s">
-        <v>127</v>
+        <v>160</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
@@ -14676,13 +14776,13 @@
         <v>189.0</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="J71" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="K71" s="5" t="s">
-        <v>233</v>
+        <v>264</v>
+      </c>
+      <c r="J71" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>266</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
@@ -14712,13 +14812,13 @@
         <v>190.0</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="K72" s="5" t="s">
-        <v>127</v>
+        <v>160</v>
+      </c>
+      <c r="K72" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
@@ -14748,13 +14848,13 @@
         <v>191.0</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="J73" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="K73" s="5" t="s">
-        <v>236</v>
+        <v>267</v>
+      </c>
+      <c r="J73" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="K73" s="8" t="s">
+        <v>269</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
@@ -14784,13 +14884,13 @@
         <v>192.0</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="J74" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="K74" s="5" t="s">
-        <v>239</v>
+        <v>270</v>
+      </c>
+      <c r="J74" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="K74" s="8" t="s">
+        <v>272</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
@@ -14839,7 +14939,7 @@
     <row r="76" ht="12.75" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -14881,7 +14981,7 @@
     </row>
     <row r="78" ht="12.75" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -14919,13 +15019,13 @@
         <v>174.0</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="J80" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="K80" s="5" t="s">
-        <v>242</v>
+        <v>273</v>
+      </c>
+      <c r="J80" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="K80" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
@@ -14955,13 +15055,13 @@
         <v>175.0</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="K81" s="5" t="s">
-        <v>245</v>
+        <v>277</v>
+      </c>
+      <c r="K81" s="8" t="s">
+        <v>278</v>
       </c>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
@@ -14991,13 +15091,13 @@
         <v>176.0</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="K82" s="5" t="s">
-        <v>248</v>
+        <v>280</v>
+      </c>
+      <c r="K82" s="8" t="s">
+        <v>281</v>
       </c>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
@@ -15027,13 +15127,13 @@
         <v>177.0</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="K83" s="5" t="s">
-        <v>251</v>
+        <v>283</v>
+      </c>
+      <c r="K83" s="8" t="s">
+        <v>284</v>
       </c>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
@@ -15063,13 +15163,13 @@
         <v>178.0</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="K84" s="5" t="s">
-        <v>254</v>
+        <v>286</v>
+      </c>
+      <c r="K84" s="8" t="s">
+        <v>287</v>
       </c>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
@@ -15099,13 +15199,13 @@
         <v>179.0</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="K85" s="5" t="s">
-        <v>257</v>
+        <v>289</v>
+      </c>
+      <c r="K85" s="8" t="s">
+        <v>290</v>
       </c>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
@@ -15126,7 +15226,7 @@
     <row r="86" ht="12.75" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -15152,7 +15252,7 @@
     </row>
     <row r="88" ht="12.75" customHeight="1">
       <c r="A88" s="4" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -15190,13 +15290,13 @@
         <v>180.0</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="J90" s="11" t="s">
-        <v>259</v>
+        <v>291</v>
+      </c>
+      <c r="J90" s="12" t="s">
+        <v>292</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
     </row>
     <row r="91" ht="12.75" customHeight="1">
@@ -15211,13 +15311,13 @@
         <v>181.0</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="J91" s="11" t="s">
-        <v>262</v>
+        <v>294</v>
+      </c>
+      <c r="J91" s="12" t="s">
+        <v>295</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
     </row>
     <row r="92" ht="12.75" customHeight="1">
@@ -15232,13 +15332,13 @@
         <v>182.0</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="J92" s="11" t="s">
-        <v>265</v>
+        <v>297</v>
+      </c>
+      <c r="J92" s="12" t="s">
+        <v>298</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
     </row>
     <row r="93" ht="12.75" customHeight="1">
@@ -15253,19 +15353,19 @@
         <v>183.0</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="J93" s="11" t="s">
-        <v>268</v>
+        <v>300</v>
+      </c>
+      <c r="J93" s="12" t="s">
+        <v>301</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
     </row>
     <row r="94" ht="12.75" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -15371,13 +15471,13 @@
         <v>22.0</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="J99" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="K99" s="5" t="s">
-        <v>272</v>
+        <v>303</v>
+      </c>
+      <c r="J99" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="K99" s="8" t="s">
+        <v>305</v>
       </c>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
@@ -15407,13 +15507,13 @@
         <v>23.0</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="K100" s="5" t="s">
-        <v>275</v>
+        <v>307</v>
+      </c>
+      <c r="K100" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
@@ -15443,13 +15543,13 @@
         <v>24.0</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="K101" s="5" t="s">
-        <v>278</v>
+        <v>310</v>
+      </c>
+      <c r="K101" s="8" t="s">
+        <v>311</v>
       </c>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
@@ -15479,13 +15579,13 @@
         <v>25.0</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="J102" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="K102" s="5" t="s">
-        <v>281</v>
+        <v>312</v>
+      </c>
+      <c r="J102" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="K102" s="8" t="s">
+        <v>314</v>
       </c>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
@@ -15506,7 +15606,7 @@
     <row r="103" ht="12.75" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -15547,7 +15647,7 @@
     </row>
     <row r="105" ht="12.75" customHeight="1">
       <c r="A105" s="4" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -15572,13 +15672,13 @@
         <v>169.0</v>
       </c>
       <c r="I106" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="J106" s="11" t="s">
-        <v>283</v>
+        <v>315</v>
+      </c>
+      <c r="J106" s="12" t="s">
+        <v>316</v>
       </c>
       <c r="K106" s="4" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
     </row>
     <row r="107" ht="12.75" customHeight="1">
@@ -15593,13 +15693,13 @@
         <v>170.0</v>
       </c>
       <c r="I107" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="J107" s="11" t="s">
-        <v>286</v>
+        <v>318</v>
+      </c>
+      <c r="J107" s="12" t="s">
+        <v>319</v>
       </c>
       <c r="K107" s="4" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
     </row>
     <row r="108" ht="12.75" customHeight="1">
@@ -15614,13 +15714,13 @@
         <v>171.0</v>
       </c>
       <c r="I108" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="J108" s="11" t="s">
-        <v>289</v>
+        <v>321</v>
+      </c>
+      <c r="J108" s="12" t="s">
+        <v>322</v>
       </c>
       <c r="K108" s="4" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
     </row>
     <row r="109" ht="12.75" customHeight="1">
@@ -15635,13 +15735,13 @@
         <v>172.0</v>
       </c>
       <c r="I109" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="J109" s="11" t="s">
-        <v>292</v>
+        <v>324</v>
+      </c>
+      <c r="J109" s="12" t="s">
+        <v>325</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
     </row>
     <row r="110" ht="12.75" customHeight="1">
@@ -15656,13 +15756,13 @@
         <v>173.0</v>
       </c>
       <c r="I110" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="J110" s="11" t="s">
-        <v>295</v>
+        <v>327</v>
+      </c>
+      <c r="J110" s="12" t="s">
+        <v>328</v>
       </c>
       <c r="K110" s="4" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
     </row>
     <row r="111" ht="12.75" customHeight="1">
@@ -15674,14 +15774,14 @@
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
       <c r="H111" s="1"/>
-      <c r="I111" s="8"/>
-      <c r="J111" s="11"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="12"/>
       <c r="K111" s="4"/>
     </row>
     <row r="112" ht="12.75" customHeight="1">
       <c r="A112" s="4"/>
       <c r="B112" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -15695,7 +15795,7 @@
     </row>
     <row r="113" ht="12.75" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -15735,13 +15835,13 @@
         <v>155.0</v>
       </c>
       <c r="I114" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="J114" s="11" t="s">
-        <v>298</v>
+        <v>330</v>
+      </c>
+      <c r="J114" s="12" t="s">
+        <v>331</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
@@ -15771,13 +15871,13 @@
         <v>156.0</v>
       </c>
       <c r="I115" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="J115" s="11" t="s">
-        <v>301</v>
+        <v>333</v>
+      </c>
+      <c r="J115" s="12" t="s">
+        <v>334</v>
       </c>
       <c r="K115" s="4" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
@@ -15807,13 +15907,13 @@
         <v>157.0</v>
       </c>
       <c r="I116" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="J116" s="11" t="s">
-        <v>304</v>
+        <v>336</v>
+      </c>
+      <c r="J116" s="12" t="s">
+        <v>337</v>
       </c>
       <c r="K116" s="4" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
@@ -15843,13 +15943,13 @@
         <v>158.0</v>
       </c>
       <c r="I117" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="J117" s="11" t="s">
-        <v>307</v>
+        <v>339</v>
+      </c>
+      <c r="J117" s="12" t="s">
+        <v>340</v>
       </c>
       <c r="K117" s="4" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
@@ -15879,13 +15979,13 @@
         <v>159.0</v>
       </c>
       <c r="I118" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="J118" s="11" t="s">
-        <v>310</v>
+        <v>342</v>
+      </c>
+      <c r="J118" s="12" t="s">
+        <v>343</v>
       </c>
       <c r="K118" s="4" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
@@ -15915,13 +16015,13 @@
         <v>160.0</v>
       </c>
       <c r="I119" s="13" t="s">
-        <v>312</v>
-      </c>
-      <c r="J119" s="11" t="s">
-        <v>313</v>
+        <v>345</v>
+      </c>
+      <c r="J119" s="12" t="s">
+        <v>346</v>
       </c>
       <c r="K119" s="4" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
@@ -15942,7 +16042,7 @@
     <row r="120" ht="12.75" customHeight="1">
       <c r="A120" s="4"/>
       <c r="B120" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -15971,7 +16071,7 @@
     </row>
     <row r="121" ht="12.75" customHeight="1">
       <c r="A121" s="4" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -16011,13 +16111,13 @@
         <v>161.0</v>
       </c>
       <c r="I122" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="J122" s="11" t="s">
-        <v>316</v>
+        <v>348</v>
+      </c>
+      <c r="J122" s="12" t="s">
+        <v>349</v>
       </c>
       <c r="K122" s="4" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
@@ -16047,13 +16147,13 @@
         <v>162.0</v>
       </c>
       <c r="I123" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="J123" s="11" t="s">
-        <v>319</v>
+        <v>351</v>
+      </c>
+      <c r="J123" s="12" t="s">
+        <v>352</v>
       </c>
       <c r="K123" s="4" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
@@ -16083,13 +16183,13 @@
         <v>163.0</v>
       </c>
       <c r="I124" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="J124" s="11" t="s">
-        <v>322</v>
+        <v>354</v>
+      </c>
+      <c r="J124" s="12" t="s">
+        <v>355</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
@@ -16119,13 +16219,13 @@
         <v>164.0</v>
       </c>
       <c r="I125" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="J125" s="11" t="s">
-        <v>325</v>
+        <v>357</v>
+      </c>
+      <c r="J125" s="12" t="s">
+        <v>358</v>
       </c>
       <c r="K125" s="4" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
@@ -16146,7 +16246,7 @@
     <row r="126" ht="12.75" customHeight="1">
       <c r="A126" s="4"/>
       <c r="B126" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
@@ -16175,7 +16275,7 @@
     </row>
     <row r="127" ht="12.75" customHeight="1">
       <c r="A127" s="4" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -16215,13 +16315,13 @@
         <v>165.0</v>
       </c>
       <c r="I128" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="J128" s="11" t="s">
-        <v>328</v>
+        <v>360</v>
+      </c>
+      <c r="J128" s="12" t="s">
+        <v>361</v>
       </c>
       <c r="K128" s="4" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
@@ -16251,13 +16351,13 @@
         <v>166.0</v>
       </c>
       <c r="I129" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="J129" s="11" t="s">
-        <v>127</v>
+        <v>159</v>
+      </c>
+      <c r="J129" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="K129" s="4" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
@@ -16287,13 +16387,13 @@
         <v>167.0</v>
       </c>
       <c r="I130" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="J130" s="11" t="s">
-        <v>331</v>
+        <v>363</v>
+      </c>
+      <c r="J130" s="12" t="s">
+        <v>364</v>
       </c>
       <c r="K130" s="4" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
@@ -16323,13 +16423,13 @@
         <v>168.0</v>
       </c>
       <c r="I131" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="J131" s="11" t="s">
-        <v>334</v>
+        <v>366</v>
+      </c>
+      <c r="J131" s="12" t="s">
+        <v>367</v>
       </c>
       <c r="K131" s="4" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="L131" s="1"/>
       <c r="M131" s="1"/>
@@ -16350,7 +16450,7 @@
     <row r="132" ht="12.75" customHeight="1">
       <c r="A132" s="4"/>
       <c r="B132" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
@@ -16379,7 +16479,7 @@
     </row>
     <row r="133" ht="12.75" customHeight="1">
       <c r="A133" s="4" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -16419,13 +16519,13 @@
         <v>116.0</v>
       </c>
       <c r="I134" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="J134" s="11" t="s">
-        <v>337</v>
+        <v>369</v>
+      </c>
+      <c r="J134" s="12" t="s">
+        <v>370</v>
       </c>
       <c r="K134" s="4" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
@@ -16455,13 +16555,13 @@
         <v>117.0</v>
       </c>
       <c r="I135" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="J135" s="11" t="s">
-        <v>340</v>
+        <v>372</v>
+      </c>
+      <c r="J135" s="12" t="s">
+        <v>373</v>
       </c>
       <c r="K135" s="4" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
@@ -16491,13 +16591,13 @@
         <v>118.0</v>
       </c>
       <c r="I136" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="J136" s="11" t="s">
-        <v>343</v>
+        <v>375</v>
+      </c>
+      <c r="J136" s="12" t="s">
+        <v>376</v>
       </c>
       <c r="K136" s="4" t="s">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
@@ -16527,13 +16627,13 @@
         <v>119.0</v>
       </c>
       <c r="I137" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="J137" s="11" t="s">
-        <v>346</v>
+        <v>378</v>
+      </c>
+      <c r="J137" s="12" t="s">
+        <v>379</v>
       </c>
       <c r="K137" s="4" t="s">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
@@ -16563,13 +16663,13 @@
         <v>120.0</v>
       </c>
       <c r="I138" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="J138" s="11" t="s">
-        <v>349</v>
+        <v>381</v>
+      </c>
+      <c r="J138" s="12" t="s">
+        <v>382</v>
       </c>
       <c r="K138" s="4" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
@@ -16590,7 +16690,7 @@
     <row r="139" ht="12.75" customHeight="1">
       <c r="A139" s="4"/>
       <c r="B139" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -16647,7 +16747,7 @@
     </row>
     <row r="141" ht="12.75" customHeight="1">
       <c r="A141" s="4" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -16687,13 +16787,13 @@
         <v>121.0</v>
       </c>
       <c r="I142" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="J142" s="11" t="s">
-        <v>352</v>
+        <v>384</v>
+      </c>
+      <c r="J142" s="12" t="s">
+        <v>385</v>
       </c>
       <c r="K142" s="4" t="s">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
@@ -16723,13 +16823,13 @@
         <v>122.0</v>
       </c>
       <c r="I143" s="13" t="s">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="K143" s="4" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
@@ -16759,13 +16859,13 @@
         <v>123.0</v>
       </c>
       <c r="I144" s="13" t="s">
-        <v>357</v>
+        <v>390</v>
       </c>
       <c r="J144" s="4" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="K144" s="4" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
@@ -16795,13 +16895,13 @@
         <v>124.0</v>
       </c>
       <c r="I145" s="13" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="K145" s="4" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
@@ -16831,13 +16931,13 @@
         <v>125.0</v>
       </c>
       <c r="I146" s="13" t="s">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="K146" s="4" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
@@ -16867,13 +16967,13 @@
         <v>126.0</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>367</v>
+        <v>400</v>
       </c>
       <c r="K147" s="4" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
@@ -16922,7 +17022,7 @@
     <row r="149" ht="12.75" customHeight="1">
       <c r="A149" s="4"/>
       <c r="B149" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
@@ -16979,7 +17079,7 @@
     </row>
     <row r="151" ht="12.75" customHeight="1">
       <c r="A151" s="4" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -17019,13 +17119,13 @@
         <v>127.0</v>
       </c>
       <c r="I152" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="J152" s="11" t="s">
-        <v>370</v>
+        <v>402</v>
+      </c>
+      <c r="J152" s="12" t="s">
+        <v>403</v>
       </c>
       <c r="K152" s="4" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
@@ -17047,7 +17147,7 @@
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4" t="s">
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
@@ -17057,13 +17157,13 @@
         <v>230.0</v>
       </c>
       <c r="I153" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="J153" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="K153" s="12" t="s">
-        <v>375</v>
+        <v>406</v>
+      </c>
+      <c r="J153" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="K153" s="4" t="s">
+        <v>408</v>
       </c>
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
@@ -17085,7 +17185,7 @@
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4" t="s">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
@@ -17095,13 +17195,13 @@
         <v>231.0</v>
       </c>
       <c r="I154" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="J154" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="K154" s="12" t="s">
-        <v>379</v>
+        <v>410</v>
+      </c>
+      <c r="J154" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="K154" s="4" t="s">
+        <v>412</v>
       </c>
       <c r="L154" s="1"/>
       <c r="M154" s="1"/>
@@ -17123,7 +17223,7 @@
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4" t="s">
-        <v>376</v>
+        <v>409</v>
       </c>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
@@ -17133,13 +17233,13 @@
         <v>232.0</v>
       </c>
       <c r="I155" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="J155" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="K155" s="12" t="s">
-        <v>382</v>
+        <v>413</v>
+      </c>
+      <c r="J155" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="K155" s="4" t="s">
+        <v>415</v>
       </c>
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
@@ -17169,13 +17269,13 @@
         <v>128.0</v>
       </c>
       <c r="I156" s="15" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="J156" s="4" t="s">
-        <v>384</v>
+        <v>417</v>
       </c>
       <c r="K156" s="4" t="s">
-        <v>385</v>
+        <v>418</v>
       </c>
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
@@ -17224,7 +17324,7 @@
     <row r="158" ht="12.75" customHeight="1">
       <c r="A158" s="4"/>
       <c r="B158" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
@@ -17281,7 +17381,7 @@
     </row>
     <row r="160" ht="12.75" customHeight="1">
       <c r="A160" s="4" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -17321,13 +17421,13 @@
         <v>129.0</v>
       </c>
       <c r="I161" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="J161" s="11" t="s">
-        <v>387</v>
+        <v>419</v>
+      </c>
+      <c r="J161" s="12" t="s">
+        <v>420</v>
       </c>
       <c r="K161" s="4" t="s">
-        <v>388</v>
+        <v>421</v>
       </c>
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
@@ -17357,13 +17457,13 @@
         <v>130.0</v>
       </c>
       <c r="I162" s="13" t="s">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="J162" s="4" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
       <c r="K162" s="4" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="L162" s="1"/>
       <c r="M162" s="1"/>
@@ -17393,13 +17493,13 @@
         <v>131.0</v>
       </c>
       <c r="I163" s="13" t="s">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="J163" s="4" t="s">
-        <v>393</v>
+        <v>426</v>
       </c>
       <c r="K163" s="4" t="s">
-        <v>394</v>
+        <v>427</v>
       </c>
       <c r="L163" s="1"/>
       <c r="M163" s="1"/>
@@ -17429,13 +17529,13 @@
         <v>132.0</v>
       </c>
       <c r="I164" s="13" t="s">
-        <v>395</v>
+        <v>428</v>
       </c>
       <c r="J164" s="4" t="s">
-        <v>396</v>
+        <v>429</v>
       </c>
       <c r="K164" s="4" t="s">
-        <v>397</v>
+        <v>430</v>
       </c>
       <c r="L164" s="1"/>
       <c r="M164" s="1"/>
@@ -17465,13 +17565,13 @@
         <v>133.0</v>
       </c>
       <c r="I165" s="13" t="s">
-        <v>398</v>
+        <v>431</v>
       </c>
       <c r="J165" s="4" t="s">
-        <v>399</v>
+        <v>432</v>
       </c>
       <c r="K165" s="4" t="s">
-        <v>400</v>
+        <v>433</v>
       </c>
       <c r="L165" s="1"/>
       <c r="M165" s="1"/>
@@ -17501,13 +17601,13 @@
         <v>134.0</v>
       </c>
       <c r="I166" s="13" t="s">
-        <v>401</v>
+        <v>434</v>
       </c>
       <c r="J166" s="4" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="K166" s="4" t="s">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="L166" s="1"/>
       <c r="M166" s="1"/>
@@ -17537,13 +17637,13 @@
         <v>135.0</v>
       </c>
       <c r="I167" s="15" t="s">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="J167" s="4" t="s">
-        <v>405</v>
+        <v>438</v>
       </c>
       <c r="K167" s="4" t="s">
-        <v>406</v>
+        <v>439</v>
       </c>
       <c r="L167" s="1"/>
       <c r="M167" s="1"/>
@@ -17573,13 +17673,13 @@
         <v>136.0</v>
       </c>
       <c r="I168" s="15" t="s">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="J168" s="4" t="s">
-        <v>408</v>
+        <v>441</v>
       </c>
       <c r="K168" s="4" t="s">
-        <v>409</v>
+        <v>442</v>
       </c>
       <c r="L168" s="1"/>
       <c r="M168" s="1"/>
@@ -17600,7 +17700,7 @@
     <row r="169" ht="12.75" customHeight="1">
       <c r="A169" s="4"/>
       <c r="B169" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
@@ -17657,7 +17757,7 @@
     </row>
     <row r="171" ht="12.75" customHeight="1">
       <c r="A171" s="4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -17697,13 +17797,13 @@
         <v>137.0</v>
       </c>
       <c r="I172" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="J172" s="11" t="s">
-        <v>411</v>
+        <v>443</v>
+      </c>
+      <c r="J172" s="12" t="s">
+        <v>444</v>
       </c>
       <c r="K172" s="4" t="s">
-        <v>412</v>
+        <v>445</v>
       </c>
       <c r="L172" s="1"/>
       <c r="M172" s="1"/>
@@ -17733,13 +17833,13 @@
         <v>138.0</v>
       </c>
       <c r="I173" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="J173" s="11" t="s">
-        <v>414</v>
+        <v>446</v>
+      </c>
+      <c r="J173" s="12" t="s">
+        <v>447</v>
       </c>
       <c r="K173" s="4" t="s">
-        <v>415</v>
+        <v>448</v>
       </c>
       <c r="L173" s="1"/>
       <c r="M173" s="1"/>
@@ -17769,13 +17869,13 @@
         <v>139.0</v>
       </c>
       <c r="I174" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="J174" s="11" t="s">
-        <v>417</v>
+        <v>449</v>
+      </c>
+      <c r="J174" s="12" t="s">
+        <v>450</v>
       </c>
       <c r="K174" s="4" t="s">
-        <v>418</v>
+        <v>451</v>
       </c>
       <c r="L174" s="1"/>
       <c r="M174" s="1"/>
@@ -17805,13 +17905,13 @@
         <v>140.0</v>
       </c>
       <c r="I175" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="J175" s="11" t="s">
-        <v>420</v>
+        <v>452</v>
+      </c>
+      <c r="J175" s="12" t="s">
+        <v>453</v>
       </c>
       <c r="K175" s="4" t="s">
-        <v>421</v>
+        <v>454</v>
       </c>
       <c r="L175" s="1"/>
       <c r="M175" s="1"/>
@@ -17841,13 +17941,13 @@
         <v>141.0</v>
       </c>
       <c r="I176" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="J176" s="11" t="s">
-        <v>423</v>
+        <v>455</v>
+      </c>
+      <c r="J176" s="12" t="s">
+        <v>456</v>
       </c>
       <c r="K176" s="4" t="s">
-        <v>424</v>
+        <v>457</v>
       </c>
       <c r="L176" s="1"/>
       <c r="M176" s="1"/>
@@ -17877,13 +17977,13 @@
         <v>142.0</v>
       </c>
       <c r="I177" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="J177" s="11" t="s">
-        <v>426</v>
+        <v>458</v>
+      </c>
+      <c r="J177" s="12" t="s">
+        <v>459</v>
       </c>
       <c r="K177" s="4" t="s">
-        <v>427</v>
+        <v>460</v>
       </c>
       <c r="L177" s="1"/>
       <c r="M177" s="1"/>
@@ -17904,7 +18004,7 @@
     <row r="178" ht="12.75" customHeight="1">
       <c r="A178" s="4"/>
       <c r="B178" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
@@ -17933,7 +18033,7 @@
     </row>
     <row r="179" ht="12.75" customHeight="1">
       <c r="A179" s="4" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -17973,13 +18073,13 @@
         <v>143.0</v>
       </c>
       <c r="I180" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="J180" s="11" t="s">
-        <v>429</v>
+        <v>461</v>
+      </c>
+      <c r="J180" s="12" t="s">
+        <v>462</v>
       </c>
       <c r="K180" s="4" t="s">
-        <v>430</v>
+        <v>463</v>
       </c>
       <c r="L180" s="1"/>
       <c r="M180" s="1"/>
@@ -18009,13 +18109,13 @@
         <v>144.0</v>
       </c>
       <c r="I181" s="13" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="J181" s="4" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
       <c r="K181" s="4" t="s">
-        <v>433</v>
+        <v>466</v>
       </c>
       <c r="L181" s="1"/>
       <c r="M181" s="1"/>
@@ -18045,13 +18145,13 @@
         <v>145.0</v>
       </c>
       <c r="I182" s="13" t="s">
-        <v>434</v>
+        <v>467</v>
       </c>
       <c r="J182" s="4" t="s">
-        <v>435</v>
+        <v>468</v>
       </c>
       <c r="K182" s="4" t="s">
-        <v>436</v>
+        <v>469</v>
       </c>
       <c r="L182" s="1"/>
       <c r="M182" s="1"/>
@@ -18081,13 +18181,13 @@
         <v>146.0</v>
       </c>
       <c r="I183" s="13" t="s">
-        <v>437</v>
+        <v>470</v>
       </c>
       <c r="J183" s="4" t="s">
-        <v>438</v>
+        <v>471</v>
       </c>
       <c r="K183" s="4" t="s">
-        <v>439</v>
+        <v>472</v>
       </c>
       <c r="L183" s="1"/>
       <c r="M183" s="1"/>
@@ -18117,13 +18217,13 @@
         <v>147.0</v>
       </c>
       <c r="I184" s="13" t="s">
-        <v>440</v>
+        <v>473</v>
       </c>
       <c r="J184" s="4" t="s">
-        <v>441</v>
+        <v>474</v>
       </c>
       <c r="K184" s="4" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
       <c r="L184" s="1"/>
       <c r="M184" s="1"/>
@@ -18200,7 +18300,7 @@
     <row r="187" ht="12.75" customHeight="1">
       <c r="A187" s="4"/>
       <c r="B187" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
@@ -18229,7 +18329,7 @@
     </row>
     <row r="188" ht="12.75" customHeight="1">
       <c r="A188" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -18269,13 +18369,13 @@
         <v>148.0</v>
       </c>
       <c r="I189" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="J189" s="11" t="s">
-        <v>444</v>
+        <v>476</v>
+      </c>
+      <c r="J189" s="12" t="s">
+        <v>477</v>
       </c>
       <c r="K189" s="4" t="s">
-        <v>445</v>
+        <v>478</v>
       </c>
       <c r="L189" s="1"/>
       <c r="M189" s="1"/>
@@ -18305,13 +18405,13 @@
         <v>149.0</v>
       </c>
       <c r="I190" s="4" t="s">
-        <v>446</v>
+        <v>479</v>
       </c>
       <c r="J190" s="4" t="s">
-        <v>447</v>
+        <v>480</v>
       </c>
       <c r="K190" s="4" t="s">
-        <v>448</v>
+        <v>481</v>
       </c>
       <c r="L190" s="1"/>
       <c r="M190" s="1"/>
@@ -18341,13 +18441,13 @@
         <v>150.0</v>
       </c>
       <c r="I191" s="4" t="s">
-        <v>449</v>
+        <v>482</v>
       </c>
       <c r="J191" s="4" t="s">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="K191" s="4" t="s">
-        <v>451</v>
+        <v>484</v>
       </c>
       <c r="L191" s="1"/>
       <c r="M191" s="1"/>
@@ -18377,13 +18477,13 @@
         <v>151.0</v>
       </c>
       <c r="I192" s="4" t="s">
-        <v>452</v>
+        <v>485</v>
       </c>
       <c r="J192" s="4" t="s">
-        <v>453</v>
+        <v>486</v>
       </c>
       <c r="K192" s="4" t="s">
-        <v>454</v>
+        <v>487</v>
       </c>
       <c r="L192" s="1"/>
       <c r="M192" s="1"/>
@@ -18413,13 +18513,13 @@
         <v>152.0</v>
       </c>
       <c r="I193" s="4" t="s">
-        <v>455</v>
+        <v>488</v>
       </c>
       <c r="J193" s="4" t="s">
-        <v>456</v>
+        <v>489</v>
       </c>
       <c r="K193" s="4" t="s">
-        <v>457</v>
+        <v>490</v>
       </c>
       <c r="L193" s="1"/>
       <c r="M193" s="1"/>
@@ -18449,13 +18549,13 @@
         <v>153.0</v>
       </c>
       <c r="I194" s="4" t="s">
-        <v>458</v>
+        <v>491</v>
       </c>
       <c r="J194" s="4" t="s">
-        <v>459</v>
+        <v>492</v>
       </c>
       <c r="K194" s="4" t="s">
-        <v>460</v>
+        <v>493</v>
       </c>
       <c r="L194" s="1"/>
       <c r="M194" s="1"/>
@@ -18485,19 +18585,19 @@
         <v>154.0</v>
       </c>
       <c r="I195" s="4" t="s">
-        <v>461</v>
+        <v>494</v>
       </c>
       <c r="J195" s="4" t="s">
-        <v>462</v>
+        <v>495</v>
       </c>
       <c r="K195" s="4" t="s">
-        <v>463</v>
+        <v>496</v>
       </c>
     </row>
     <row r="196" ht="12.75" customHeight="1">
       <c r="A196" s="4"/>
       <c r="B196" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
@@ -18554,7 +18654,7 @@
     </row>
     <row r="198" ht="12.75" customHeight="1">
       <c r="A198" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -18622,13 +18722,13 @@
         <v>105.0</v>
       </c>
       <c r="I200" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="J200" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="K200" s="5" t="s">
-        <v>466</v>
+        <v>497</v>
+      </c>
+      <c r="J200" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="K200" s="8" t="s">
+        <v>499</v>
       </c>
       <c r="L200" s="1"/>
       <c r="M200" s="1"/>
@@ -18658,13 +18758,13 @@
         <v>106.0</v>
       </c>
       <c r="I201" s="4" t="s">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="J201" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="K201" s="5" t="s">
-        <v>469</v>
+        <v>501</v>
+      </c>
+      <c r="K201" s="8" t="s">
+        <v>502</v>
       </c>
       <c r="L201" s="1"/>
       <c r="M201" s="1"/>
@@ -18694,13 +18794,13 @@
         <v>107.0</v>
       </c>
       <c r="I202" s="4" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="J202" s="4" t="s">
-        <v>471</v>
-      </c>
-      <c r="K202" s="5" t="s">
-        <v>472</v>
+        <v>504</v>
+      </c>
+      <c r="K202" s="8" t="s">
+        <v>505</v>
       </c>
       <c r="L202" s="1"/>
       <c r="M202" s="1"/>
@@ -18730,13 +18830,13 @@
         <v>108.0</v>
       </c>
       <c r="I203" s="4" t="s">
-        <v>473</v>
+        <v>506</v>
       </c>
       <c r="J203" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="K203" s="5" t="s">
-        <v>475</v>
+        <v>507</v>
+      </c>
+      <c r="K203" s="8" t="s">
+        <v>508</v>
       </c>
       <c r="L203" s="1"/>
       <c r="M203" s="1"/>
@@ -18766,13 +18866,13 @@
         <v>109.0</v>
       </c>
       <c r="I204" s="4" t="s">
-        <v>476</v>
+        <v>509</v>
       </c>
       <c r="J204" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="K204" s="5" t="s">
-        <v>478</v>
+        <v>510</v>
+      </c>
+      <c r="K204" s="8" t="s">
+        <v>511</v>
       </c>
       <c r="L204" s="1"/>
       <c r="M204" s="1"/>
@@ -18793,7 +18893,7 @@
     <row r="205" ht="12.75" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -18822,7 +18922,7 @@
     </row>
     <row r="206" ht="12.75" customHeight="1">
       <c r="A206" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -18890,13 +18990,13 @@
         <v>110.0</v>
       </c>
       <c r="I208" s="4" t="s">
-        <v>479</v>
-      </c>
-      <c r="J208" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="K208" s="5" t="s">
-        <v>481</v>
+        <v>512</v>
+      </c>
+      <c r="J208" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="K208" s="8" t="s">
+        <v>514</v>
       </c>
       <c r="L208" s="1"/>
       <c r="M208" s="1"/>
@@ -18926,13 +19026,13 @@
         <v>111.0</v>
       </c>
       <c r="I209" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="J209" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="K209" s="5" t="s">
-        <v>484</v>
+        <v>515</v>
+      </c>
+      <c r="J209" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="K209" s="8" t="s">
+        <v>517</v>
       </c>
       <c r="L209" s="1"/>
       <c r="M209" s="1"/>
@@ -18962,13 +19062,13 @@
         <v>112.0</v>
       </c>
       <c r="I210" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="J210" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="K210" s="5" t="s">
-        <v>487</v>
+        <v>518</v>
+      </c>
+      <c r="J210" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="K210" s="8" t="s">
+        <v>520</v>
       </c>
       <c r="L210" s="1"/>
       <c r="M210" s="1"/>
@@ -18998,13 +19098,13 @@
         <v>113.0</v>
       </c>
       <c r="I211" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="J211" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="K211" s="5" t="s">
-        <v>490</v>
+        <v>521</v>
+      </c>
+      <c r="J211" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="K211" s="8" t="s">
+        <v>523</v>
       </c>
       <c r="L211" s="1"/>
       <c r="M211" s="1"/>
@@ -19034,13 +19134,13 @@
         <v>114.0</v>
       </c>
       <c r="I212" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="J212" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="K212" s="5" t="s">
-        <v>493</v>
+        <v>524</v>
+      </c>
+      <c r="J212" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="K212" s="8" t="s">
+        <v>526</v>
       </c>
       <c r="L212" s="1"/>
       <c r="M212" s="1"/>
@@ -19070,19 +19170,19 @@
         <v>115.0</v>
       </c>
       <c r="I213" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="J213" s="11" t="s">
-        <v>495</v>
+        <v>527</v>
+      </c>
+      <c r="J213" s="12" t="s">
+        <v>528</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>496</v>
+        <v>529</v>
       </c>
     </row>
     <row r="214" ht="12.75" customHeight="1">
       <c r="A214" s="1"/>
       <c r="B214" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -19139,7 +19239,7 @@
     </row>
     <row r="216" ht="12.75" customHeight="1">
       <c r="A216" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -19207,13 +19307,13 @@
         <v>26.0</v>
       </c>
       <c r="I218" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="J218" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="K218" s="5" t="s">
-        <v>499</v>
+        <v>530</v>
+      </c>
+      <c r="J218" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="K218" s="8" t="s">
+        <v>532</v>
       </c>
       <c r="L218" s="1"/>
       <c r="M218" s="1"/>
@@ -19243,13 +19343,13 @@
         <v>27.0</v>
       </c>
       <c r="I219" s="4" t="s">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="J219" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="K219" s="5" t="s">
-        <v>502</v>
+        <v>534</v>
+      </c>
+      <c r="K219" s="8" t="s">
+        <v>535</v>
       </c>
       <c r="L219" s="1"/>
       <c r="M219" s="1"/>
@@ -19279,13 +19379,13 @@
         <v>28.0</v>
       </c>
       <c r="I220" s="4" t="s">
-        <v>503</v>
+        <v>536</v>
       </c>
       <c r="J220" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="K220" s="5" t="s">
-        <v>505</v>
+        <v>537</v>
+      </c>
+      <c r="K220" s="8" t="s">
+        <v>538</v>
       </c>
       <c r="L220" s="1"/>
       <c r="M220" s="1"/>
@@ -19315,13 +19415,13 @@
         <v>29.0</v>
       </c>
       <c r="I221" s="4" t="s">
-        <v>506</v>
+        <v>539</v>
       </c>
       <c r="J221" s="4" t="s">
-        <v>507</v>
-      </c>
-      <c r="K221" s="5" t="s">
-        <v>508</v>
+        <v>540</v>
+      </c>
+      <c r="K221" s="8" t="s">
+        <v>541</v>
       </c>
       <c r="L221" s="1"/>
       <c r="M221" s="1"/>
@@ -19351,13 +19451,13 @@
         <v>30.0</v>
       </c>
       <c r="I222" s="4" t="s">
-        <v>509</v>
+        <v>542</v>
       </c>
       <c r="J222" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="K222" s="5" t="s">
-        <v>511</v>
+        <v>543</v>
+      </c>
+      <c r="K222" s="8" t="s">
+        <v>544</v>
       </c>
       <c r="L222" s="1"/>
       <c r="M222" s="1"/>
@@ -19387,13 +19487,13 @@
         <v>31.0</v>
       </c>
       <c r="I223" s="4" t="s">
-        <v>512</v>
+        <v>545</v>
       </c>
       <c r="J223" s="4" t="s">
-        <v>513</v>
-      </c>
-      <c r="K223" s="5" t="s">
-        <v>514</v>
+        <v>546</v>
+      </c>
+      <c r="K223" s="8" t="s">
+        <v>547</v>
       </c>
       <c r="L223" s="1"/>
       <c r="M223" s="1"/>
@@ -19423,13 +19523,13 @@
         <v>32.0</v>
       </c>
       <c r="I224" s="4" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="J224" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="K224" s="5" t="s">
-        <v>127</v>
+        <v>160</v>
+      </c>
+      <c r="K224" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="L224" s="1"/>
       <c r="M224" s="1"/>
@@ -19459,13 +19559,13 @@
         <v>33.0</v>
       </c>
       <c r="I225" s="4" t="s">
-        <v>515</v>
+        <v>548</v>
       </c>
       <c r="J225" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="K225" s="5" t="s">
-        <v>517</v>
+        <v>549</v>
+      </c>
+      <c r="K225" s="8" t="s">
+        <v>550</v>
       </c>
       <c r="L225" s="1"/>
       <c r="M225" s="1"/>
@@ -19495,19 +19595,19 @@
         <v>34.0</v>
       </c>
       <c r="I226" s="4" t="s">
-        <v>518</v>
+        <v>551</v>
       </c>
       <c r="J226" s="4" t="s">
-        <v>519</v>
+        <v>552</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>520</v>
+        <v>553</v>
       </c>
     </row>
     <row r="227" ht="12.75" customHeight="1">
       <c r="A227" s="1"/>
       <c r="B227" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -19557,7 +19657,7 @@
     </row>
     <row r="231" ht="12.75" customHeight="1">
       <c r="A231" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -19593,23 +19693,23 @@
         <v>35.0</v>
       </c>
       <c r="I233" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="J233" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="K233" s="5" t="s">
-        <v>523</v>
+        <v>554</v>
+      </c>
+      <c r="J233" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="K233" s="8" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="234" ht="12.75" customHeight="1">
       <c r="A234" s="1"/>
       <c r="B234" s="1" t="s">
-        <v>524</v>
+        <v>557</v>
       </c>
       <c r="C234" s="1"/>
       <c r="D234" s="1" t="s">
-        <v>525</v>
+        <v>558</v>
       </c>
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
@@ -19618,23 +19718,23 @@
         <v>36.0</v>
       </c>
       <c r="I234" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="J234" s="11" t="s">
-        <v>527</v>
-      </c>
-      <c r="K234" s="5" t="s">
-        <v>528</v>
+        <v>559</v>
+      </c>
+      <c r="J234" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="K234" s="8" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="235" ht="12.75" customHeight="1">
       <c r="A235" s="1"/>
       <c r="B235" s="1" t="s">
-        <v>529</v>
+        <v>562</v>
       </c>
       <c r="C235" s="1"/>
       <c r="D235" s="1" t="s">
-        <v>525</v>
+        <v>558</v>
       </c>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
@@ -19643,13 +19743,13 @@
         <v>37.0</v>
       </c>
       <c r="I235" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="J235" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="K235" s="5" t="s">
-        <v>532</v>
+        <v>563</v>
+      </c>
+      <c r="J235" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="K235" s="8" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="236" ht="12.75" customHeight="1">
@@ -19662,11 +19762,11 @@
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
       <c r="I236" s="4"/>
-      <c r="J236" s="11"/>
+      <c r="J236" s="12"/>
     </row>
     <row r="237" ht="12.75" customHeight="1">
       <c r="A237" s="1" t="s">
-        <v>524</v>
+        <v>557</v>
       </c>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -19676,7 +19776,7 @@
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
       <c r="I237" s="4"/>
-      <c r="J237" s="11"/>
+      <c r="J237" s="12"/>
     </row>
     <row r="238" ht="12.75" customHeight="1">
       <c r="A238" s="1"/>
@@ -19690,13 +19790,13 @@
         <v>38.0</v>
       </c>
       <c r="I238" s="4" t="s">
-        <v>533</v>
+        <v>566</v>
       </c>
       <c r="J238" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="K238" s="5" t="s">
-        <v>535</v>
+        <v>567</v>
+      </c>
+      <c r="K238" s="8" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="239" ht="12.75" customHeight="1">
@@ -19711,13 +19811,13 @@
         <v>39.0</v>
       </c>
       <c r="I239" s="4" t="s">
-        <v>536</v>
+        <v>569</v>
       </c>
       <c r="J239" s="4" t="s">
-        <v>537</v>
-      </c>
-      <c r="K239" s="5" t="s">
-        <v>538</v>
+        <v>570</v>
+      </c>
+      <c r="K239" s="8" t="s">
+        <v>571</v>
       </c>
       <c r="L239" s="1"/>
       <c r="M239" s="1"/>
@@ -19747,13 +19847,13 @@
         <v>40.0</v>
       </c>
       <c r="I240" s="4" t="s">
-        <v>539</v>
+        <v>572</v>
       </c>
       <c r="J240" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="K240" s="5" t="s">
-        <v>541</v>
+        <v>573</v>
+      </c>
+      <c r="K240" s="8" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="241" ht="12.75" customHeight="1">
@@ -19768,13 +19868,13 @@
         <v>41.0</v>
       </c>
       <c r="I241" s="4" t="s">
-        <v>542</v>
+        <v>575</v>
       </c>
       <c r="J241" s="4" t="s">
-        <v>543</v>
+        <v>576</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>544</v>
+        <v>577</v>
       </c>
     </row>
     <row r="242" ht="12.75" customHeight="1">
@@ -19789,13 +19889,13 @@
         <v>42.0</v>
       </c>
       <c r="I242" s="4" t="s">
-        <v>545</v>
+        <v>578</v>
       </c>
       <c r="J242" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="K242" s="5" t="s">
-        <v>547</v>
+        <v>579</v>
+      </c>
+      <c r="K242" s="8" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="243" ht="12.75" customHeight="1">
@@ -19810,19 +19910,19 @@
         <v>43.0</v>
       </c>
       <c r="I243" s="4" t="s">
-        <v>548</v>
+        <v>581</v>
       </c>
       <c r="J243" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="K243" s="5" t="s">
-        <v>550</v>
+        <v>582</v>
+      </c>
+      <c r="K243" s="8" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="244" ht="12.75" customHeight="1">
       <c r="A244" s="1"/>
       <c r="B244" s="1" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
@@ -19835,7 +19935,7 @@
     </row>
     <row r="245" ht="12.75" customHeight="1">
       <c r="A245" s="1" t="s">
-        <v>529</v>
+        <v>562</v>
       </c>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -19859,19 +19959,19 @@
         <v>44.0</v>
       </c>
       <c r="I246" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="J246" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="K246" s="5" t="s">
-        <v>553</v>
+        <v>584</v>
+      </c>
+      <c r="J246" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="K246" s="8" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="247" ht="12.75" customHeight="1">
       <c r="A247" s="1"/>
       <c r="B247" s="1" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
@@ -19928,7 +20028,7 @@
     </row>
     <row r="249" ht="12.75" customHeight="1">
       <c r="A249" s="4" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -19968,13 +20068,13 @@
         <v>93.0</v>
       </c>
       <c r="I250" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="J250" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="K250" s="5" t="s">
-        <v>556</v>
+        <v>587</v>
+      </c>
+      <c r="J250" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="K250" s="8" t="s">
+        <v>589</v>
       </c>
       <c r="L250" s="1"/>
       <c r="M250" s="1"/>
@@ -20004,13 +20104,13 @@
         <v>94.0</v>
       </c>
       <c r="I251" s="4" t="s">
-        <v>557</v>
+        <v>590</v>
       </c>
       <c r="J251" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="K251" s="5" t="s">
-        <v>559</v>
+        <v>591</v>
+      </c>
+      <c r="K251" s="8" t="s">
+        <v>592</v>
       </c>
       <c r="L251" s="1"/>
       <c r="M251" s="1"/>
@@ -20040,13 +20140,13 @@
         <v>95.0</v>
       </c>
       <c r="I252" s="4" t="s">
-        <v>560</v>
+        <v>593</v>
       </c>
       <c r="J252" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="K252" s="5" t="s">
-        <v>562</v>
+        <v>594</v>
+      </c>
+      <c r="K252" s="8" t="s">
+        <v>595</v>
       </c>
       <c r="L252" s="1"/>
       <c r="M252" s="1"/>
@@ -20076,13 +20176,13 @@
         <v>96.0</v>
       </c>
       <c r="I253" s="4" t="s">
-        <v>563</v>
+        <v>596</v>
       </c>
       <c r="J253" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="K253" s="5" t="s">
-        <v>565</v>
+        <v>597</v>
+      </c>
+      <c r="K253" s="8" t="s">
+        <v>598</v>
       </c>
       <c r="L253" s="1"/>
       <c r="M253" s="1"/>
@@ -20112,13 +20212,13 @@
         <v>97.0</v>
       </c>
       <c r="I254" s="4" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="J254" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="K254" s="5" t="s">
-        <v>127</v>
+        <v>160</v>
+      </c>
+      <c r="K254" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="L254" s="1"/>
       <c r="M254" s="1"/>
@@ -20148,13 +20248,13 @@
         <v>98.0</v>
       </c>
       <c r="I255" s="4" t="s">
-        <v>566</v>
+        <v>599</v>
       </c>
       <c r="J255" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="K255" s="5" t="s">
-        <v>568</v>
+        <v>600</v>
+      </c>
+      <c r="K255" s="8" t="s">
+        <v>601</v>
       </c>
       <c r="L255" s="1"/>
       <c r="M255" s="1"/>
@@ -20184,13 +20284,13 @@
         <v>99.0</v>
       </c>
       <c r="I256" s="4" t="s">
-        <v>569</v>
+        <v>602</v>
       </c>
       <c r="J256" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="K256" s="5" t="s">
-        <v>571</v>
+        <v>603</v>
+      </c>
+      <c r="K256" s="8" t="s">
+        <v>604</v>
       </c>
       <c r="L256" s="1"/>
       <c r="M256" s="1"/>
@@ -20239,7 +20339,7 @@
     <row r="258" ht="12.75" customHeight="1">
       <c r="A258" s="1"/>
       <c r="B258" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
@@ -20268,7 +20368,7 @@
     </row>
     <row r="259" ht="12.75" customHeight="1">
       <c r="A259" s="4" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -20308,13 +20408,13 @@
         <v>100.0</v>
       </c>
       <c r="I260" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="J260" s="11" t="s">
-        <v>573</v>
-      </c>
-      <c r="K260" s="5" t="s">
-        <v>574</v>
+        <v>605</v>
+      </c>
+      <c r="J260" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="K260" s="8" t="s">
+        <v>607</v>
       </c>
       <c r="L260" s="1"/>
       <c r="M260" s="1"/>
@@ -20344,13 +20444,13 @@
         <v>101.0</v>
       </c>
       <c r="I261" s="4" t="s">
-        <v>575</v>
+        <v>608</v>
       </c>
       <c r="J261" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="K261" s="5" t="s">
-        <v>577</v>
+        <v>609</v>
+      </c>
+      <c r="K261" s="8" t="s">
+        <v>610</v>
       </c>
       <c r="L261" s="1"/>
       <c r="M261" s="1"/>
@@ -20380,13 +20480,13 @@
         <v>102.0</v>
       </c>
       <c r="I262" s="4" t="s">
-        <v>578</v>
+        <v>611</v>
       </c>
       <c r="J262" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="K262" s="5" t="s">
-        <v>580</v>
+        <v>612</v>
+      </c>
+      <c r="K262" s="8" t="s">
+        <v>613</v>
       </c>
       <c r="L262" s="1"/>
       <c r="M262" s="1"/>
@@ -20416,13 +20516,13 @@
         <v>103.0</v>
       </c>
       <c r="I263" s="4" t="s">
-        <v>581</v>
+        <v>614</v>
       </c>
       <c r="J263" s="4" t="s">
-        <v>582</v>
-      </c>
-      <c r="K263" s="5" t="s">
-        <v>583</v>
+        <v>615</v>
+      </c>
+      <c r="K263" s="8" t="s">
+        <v>616</v>
       </c>
       <c r="L263" s="1"/>
       <c r="M263" s="1"/>
@@ -20452,13 +20552,13 @@
         <v>104.0</v>
       </c>
       <c r="I264" s="4" t="s">
-        <v>584</v>
+        <v>617</v>
       </c>
       <c r="J264" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="K264" s="5" t="s">
-        <v>586</v>
+        <v>618</v>
+      </c>
+      <c r="K264" s="8" t="s">
+        <v>619</v>
       </c>
       <c r="L264" s="1"/>
       <c r="M264" s="1"/>
@@ -20507,7 +20607,7 @@
     <row r="266" ht="12.75" customHeight="1">
       <c r="A266" s="1"/>
       <c r="B266" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
@@ -20564,7 +20664,7 @@
     </row>
     <row r="268" ht="12.75" customHeight="1">
       <c r="A268" s="4" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -20604,13 +20704,13 @@
         <v>79.0</v>
       </c>
       <c r="I269" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="J269" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="K269" s="5" t="s">
-        <v>127</v>
+        <v>159</v>
+      </c>
+      <c r="J269" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K269" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="L269" s="1"/>
       <c r="M269" s="1"/>
@@ -20640,13 +20740,13 @@
         <v>80.0</v>
       </c>
       <c r="I270" s="4" t="s">
-        <v>587</v>
+        <v>620</v>
       </c>
       <c r="J270" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="K270" s="5" t="s">
-        <v>589</v>
+        <v>621</v>
+      </c>
+      <c r="K270" s="8" t="s">
+        <v>622</v>
       </c>
       <c r="L270" s="1"/>
       <c r="M270" s="1"/>
@@ -20676,13 +20776,13 @@
         <v>81.0</v>
       </c>
       <c r="I271" s="4" t="s">
-        <v>590</v>
+        <v>623</v>
       </c>
       <c r="J271" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="K271" s="5" t="s">
-        <v>592</v>
+        <v>624</v>
+      </c>
+      <c r="K271" s="8" t="s">
+        <v>625</v>
       </c>
       <c r="L271" s="1"/>
       <c r="M271" s="1"/>
@@ -20712,13 +20812,13 @@
         <v>82.0</v>
       </c>
       <c r="I272" s="4" t="s">
-        <v>593</v>
+        <v>626</v>
       </c>
       <c r="J272" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="K272" s="5" t="s">
-        <v>595</v>
+        <v>627</v>
+      </c>
+      <c r="K272" s="8" t="s">
+        <v>628</v>
       </c>
       <c r="L272" s="1"/>
       <c r="M272" s="1"/>
@@ -20748,13 +20848,13 @@
         <v>83.0</v>
       </c>
       <c r="I273" s="4" t="s">
-        <v>596</v>
+        <v>629</v>
       </c>
       <c r="J273" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="K273" s="5" t="s">
-        <v>598</v>
+        <v>630</v>
+      </c>
+      <c r="K273" s="8" t="s">
+        <v>631</v>
       </c>
       <c r="L273" s="1"/>
       <c r="M273" s="1"/>
@@ -20784,13 +20884,13 @@
         <v>84.0</v>
       </c>
       <c r="I274" s="4" t="s">
-        <v>599</v>
+        <v>632</v>
       </c>
       <c r="J274" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="K274" s="5" t="s">
-        <v>601</v>
+        <v>633</v>
+      </c>
+      <c r="K274" s="8" t="s">
+        <v>634</v>
       </c>
       <c r="L274" s="1"/>
       <c r="M274" s="1"/>
@@ -20824,7 +20924,7 @@
     <row r="276" ht="12.75" customHeight="1">
       <c r="A276" s="1"/>
       <c r="B276" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
@@ -20851,7 +20951,7 @@
     </row>
     <row r="278" ht="12.75" customHeight="1">
       <c r="A278" s="4" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -20876,13 +20976,13 @@
         <v>85.0</v>
       </c>
       <c r="I279" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="J279" s="11" t="s">
-        <v>127</v>
+        <v>159</v>
+      </c>
+      <c r="J279" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
     </row>
     <row r="280" ht="12.75" customHeight="1">
@@ -20897,13 +20997,13 @@
         <v>86.0</v>
       </c>
       <c r="I280" s="4" t="s">
-        <v>602</v>
+        <v>635</v>
       </c>
       <c r="J280" s="4" t="s">
-        <v>603</v>
+        <v>636</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>604</v>
+        <v>637</v>
       </c>
     </row>
     <row r="281" ht="12.75" customHeight="1">
@@ -20918,13 +21018,13 @@
         <v>87.0</v>
       </c>
       <c r="I281" s="4" t="s">
-        <v>605</v>
+        <v>638</v>
       </c>
       <c r="J281" s="4" t="s">
-        <v>606</v>
+        <v>639</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>607</v>
+        <v>640</v>
       </c>
     </row>
     <row r="282" ht="12.75" customHeight="1">
@@ -20939,13 +21039,13 @@
         <v>88.0</v>
       </c>
       <c r="I282" s="4" t="s">
-        <v>608</v>
+        <v>641</v>
       </c>
       <c r="J282" s="4" t="s">
-        <v>609</v>
+        <v>642</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>610</v>
+        <v>643</v>
       </c>
     </row>
     <row r="283" ht="12.75" customHeight="1">
@@ -20960,13 +21060,13 @@
         <v>89.0</v>
       </c>
       <c r="I283" s="4" t="s">
-        <v>611</v>
+        <v>644</v>
       </c>
       <c r="J283" s="4" t="s">
-        <v>612</v>
+        <v>645</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>613</v>
+        <v>646</v>
       </c>
     </row>
     <row r="284" ht="12.75" customHeight="1">
@@ -20981,13 +21081,13 @@
         <v>90.0</v>
       </c>
       <c r="I284" s="4" t="s">
-        <v>614</v>
+        <v>647</v>
       </c>
       <c r="J284" s="4" t="s">
-        <v>615</v>
+        <v>648</v>
       </c>
       <c r="K284" s="1" t="s">
-        <v>616</v>
+        <v>649</v>
       </c>
     </row>
     <row r="285" ht="12.75" customHeight="1">
@@ -21002,13 +21102,13 @@
         <v>91.0</v>
       </c>
       <c r="I285" s="4" t="s">
-        <v>617</v>
+        <v>650</v>
       </c>
       <c r="J285" s="4" t="s">
-        <v>618</v>
+        <v>651</v>
       </c>
       <c r="K285" s="1" t="s">
-        <v>619</v>
+        <v>652</v>
       </c>
     </row>
     <row r="286" ht="12.75" customHeight="1">
@@ -21023,19 +21123,19 @@
         <v>92.0</v>
       </c>
       <c r="I286" s="4" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="J286" s="4" t="s">
-        <v>620</v>
+        <v>653</v>
       </c>
       <c r="K286" s="1" t="s">
-        <v>621</v>
+        <v>654</v>
       </c>
     </row>
     <row r="287" ht="12.75" customHeight="1">
       <c r="A287" s="1"/>
       <c r="B287" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C287" s="1"/>
       <c r="D287" s="1"/>
@@ -21061,7 +21161,7 @@
     </row>
     <row r="289" ht="12.75" customHeight="1">
       <c r="A289" s="4" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -21086,13 +21186,13 @@
         <v>74.0</v>
       </c>
       <c r="I290" s="4" t="s">
-        <v>622</v>
-      </c>
-      <c r="J290" s="11" t="s">
-        <v>623</v>
+        <v>655</v>
+      </c>
+      <c r="J290" s="12" t="s">
+        <v>656</v>
       </c>
       <c r="K290" s="1" t="s">
-        <v>624</v>
+        <v>657</v>
       </c>
     </row>
     <row r="291" ht="12.75" customHeight="1">
@@ -21107,13 +21207,13 @@
         <v>75.0</v>
       </c>
       <c r="I291" s="4" t="s">
-        <v>625</v>
+        <v>658</v>
       </c>
       <c r="J291" s="4" t="s">
-        <v>626</v>
+        <v>659</v>
       </c>
       <c r="K291" s="1" t="s">
-        <v>627</v>
+        <v>660</v>
       </c>
     </row>
     <row r="292" ht="12.75" customHeight="1">
@@ -21128,13 +21228,13 @@
         <v>76.0</v>
       </c>
       <c r="I292" s="4" t="s">
-        <v>628</v>
+        <v>661</v>
       </c>
       <c r="J292" s="4" t="s">
-        <v>629</v>
+        <v>662</v>
       </c>
       <c r="K292" s="1" t="s">
-        <v>630</v>
+        <v>663</v>
       </c>
     </row>
     <row r="293" ht="12.75" customHeight="1">
@@ -21149,13 +21249,13 @@
         <v>77.0</v>
       </c>
       <c r="I293" s="4" t="s">
-        <v>631</v>
+        <v>664</v>
       </c>
       <c r="J293" s="4" t="s">
-        <v>632</v>
+        <v>665</v>
       </c>
       <c r="K293" s="1" t="s">
-        <v>633</v>
+        <v>666</v>
       </c>
     </row>
     <row r="294" ht="12.75" customHeight="1">
@@ -21170,13 +21270,13 @@
         <v>78.0</v>
       </c>
       <c r="I294" s="4" t="s">
-        <v>634</v>
+        <v>667</v>
       </c>
       <c r="J294" s="4" t="s">
-        <v>635</v>
+        <v>668</v>
       </c>
       <c r="K294" s="1" t="s">
-        <v>636</v>
+        <v>669</v>
       </c>
     </row>
     <row r="295" ht="12.75" customHeight="1">
@@ -21208,7 +21308,7 @@
     <row r="297" ht="12.75" customHeight="1">
       <c r="A297" s="1"/>
       <c r="B297" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C297" s="1"/>
       <c r="D297" s="1"/>
@@ -21265,7 +21365,7 @@
     </row>
     <row r="299" ht="12.75" customHeight="1">
       <c r="A299" s="4" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -21305,13 +21405,13 @@
         <v>66.0</v>
       </c>
       <c r="I300" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="J300" s="11" t="s">
-        <v>638</v>
-      </c>
-      <c r="K300" s="5" t="s">
-        <v>639</v>
+        <v>670</v>
+      </c>
+      <c r="J300" s="12" t="s">
+        <v>671</v>
+      </c>
+      <c r="K300" s="8" t="s">
+        <v>672</v>
       </c>
       <c r="L300" s="1"/>
       <c r="M300" s="1"/>
@@ -21341,13 +21441,13 @@
         <v>67.0</v>
       </c>
       <c r="I301" s="4" t="s">
-        <v>640</v>
+        <v>673</v>
       </c>
       <c r="J301" s="4" t="s">
-        <v>641</v>
-      </c>
-      <c r="K301" s="5" t="s">
-        <v>642</v>
+        <v>674</v>
+      </c>
+      <c r="K301" s="8" t="s">
+        <v>675</v>
       </c>
       <c r="L301" s="1"/>
       <c r="M301" s="1"/>
@@ -21377,13 +21477,13 @@
         <v>68.0</v>
       </c>
       <c r="I302" s="4" t="s">
-        <v>643</v>
+        <v>676</v>
       </c>
       <c r="J302" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="K302" s="5" t="s">
-        <v>644</v>
+        <v>677</v>
+      </c>
+      <c r="K302" s="8" t="s">
+        <v>677</v>
       </c>
       <c r="L302" s="1"/>
       <c r="M302" s="1"/>
@@ -21413,13 +21513,13 @@
         <v>69.0</v>
       </c>
       <c r="I303" s="4" t="s">
-        <v>645</v>
+        <v>678</v>
       </c>
       <c r="J303" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="K303" s="5" t="s">
-        <v>647</v>
+        <v>679</v>
+      </c>
+      <c r="K303" s="8" t="s">
+        <v>680</v>
       </c>
       <c r="L303" s="1"/>
       <c r="M303" s="1"/>
@@ -21449,13 +21549,13 @@
         <v>70.0</v>
       </c>
       <c r="I304" s="4" t="s">
-        <v>648</v>
+        <v>681</v>
       </c>
       <c r="J304" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="K304" s="5" t="s">
-        <v>650</v>
+        <v>682</v>
+      </c>
+      <c r="K304" s="8" t="s">
+        <v>683</v>
       </c>
       <c r="L304" s="1"/>
       <c r="M304" s="1"/>
@@ -21485,13 +21585,13 @@
         <v>71.0</v>
       </c>
       <c r="I305" s="4" t="s">
-        <v>651</v>
+        <v>684</v>
       </c>
       <c r="J305" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="K305" s="5" t="s">
-        <v>653</v>
+        <v>685</v>
+      </c>
+      <c r="K305" s="8" t="s">
+        <v>686</v>
       </c>
       <c r="L305" s="1"/>
       <c r="M305" s="1"/>
@@ -21521,13 +21621,13 @@
         <v>72.0</v>
       </c>
       <c r="I306" s="4" t="s">
-        <v>654</v>
+        <v>687</v>
       </c>
       <c r="J306" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="K306" s="5" t="s">
-        <v>656</v>
+        <v>688</v>
+      </c>
+      <c r="K306" s="8" t="s">
+        <v>689</v>
       </c>
       <c r="L306" s="1"/>
       <c r="M306" s="1"/>
@@ -21557,13 +21657,13 @@
         <v>73.0</v>
       </c>
       <c r="I307" s="4" t="s">
-        <v>657</v>
+        <v>690</v>
       </c>
       <c r="J307" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="K307" s="5" t="s">
-        <v>659</v>
+        <v>691</v>
+      </c>
+      <c r="K307" s="8" t="s">
+        <v>692</v>
       </c>
       <c r="L307" s="1"/>
       <c r="M307" s="1"/>
@@ -21584,7 +21684,7 @@
     <row r="308" ht="12.75" customHeight="1">
       <c r="A308" s="1"/>
       <c r="B308" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C308" s="1"/>
       <c r="D308" s="1"/>
@@ -21613,7 +21713,7 @@
     </row>
     <row r="309" ht="12.75" customHeight="1">
       <c r="A309" s="4" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -21653,13 +21753,13 @@
         <v>60.0</v>
       </c>
       <c r="I310" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="J310" s="11" t="s">
-        <v>661</v>
-      </c>
-      <c r="K310" s="5" t="s">
-        <v>662</v>
+        <v>693</v>
+      </c>
+      <c r="J310" s="12" t="s">
+        <v>694</v>
+      </c>
+      <c r="K310" s="8" t="s">
+        <v>695</v>
       </c>
       <c r="L310" s="1"/>
       <c r="M310" s="1"/>
@@ -21689,13 +21789,13 @@
         <v>61.0</v>
       </c>
       <c r="I311" s="4" t="s">
-        <v>663</v>
+        <v>696</v>
       </c>
       <c r="J311" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="K311" s="5" t="s">
-        <v>665</v>
+        <v>697</v>
+      </c>
+      <c r="K311" s="8" t="s">
+        <v>698</v>
       </c>
       <c r="L311" s="1"/>
       <c r="M311" s="1"/>
@@ -21725,13 +21825,13 @@
         <v>62.0</v>
       </c>
       <c r="I312" s="4" t="s">
-        <v>666</v>
+        <v>699</v>
       </c>
       <c r="J312" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="K312" s="5" t="s">
-        <v>668</v>
+        <v>700</v>
+      </c>
+      <c r="K312" s="8" t="s">
+        <v>701</v>
       </c>
       <c r="L312" s="1"/>
       <c r="M312" s="1"/>
@@ -21761,13 +21861,13 @@
         <v>63.0</v>
       </c>
       <c r="I313" s="4" t="s">
-        <v>669</v>
+        <v>702</v>
       </c>
       <c r="J313" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="K313" s="5" t="s">
-        <v>671</v>
+        <v>703</v>
+      </c>
+      <c r="K313" s="8" t="s">
+        <v>704</v>
       </c>
       <c r="L313" s="1"/>
       <c r="M313" s="1"/>
@@ -21797,13 +21897,13 @@
         <v>64.0</v>
       </c>
       <c r="I314" s="4" t="s">
-        <v>672</v>
+        <v>705</v>
       </c>
       <c r="J314" s="4" t="s">
-        <v>673</v>
-      </c>
-      <c r="K314" s="5" t="s">
-        <v>674</v>
+        <v>706</v>
+      </c>
+      <c r="K314" s="8" t="s">
+        <v>707</v>
       </c>
       <c r="L314" s="1"/>
       <c r="M314" s="1"/>
@@ -21833,19 +21933,19 @@
         <v>65.0</v>
       </c>
       <c r="I315" s="4" t="s">
-        <v>675</v>
+        <v>708</v>
       </c>
       <c r="J315" s="4" t="s">
-        <v>676</v>
+        <v>709</v>
       </c>
       <c r="K315" s="1" t="s">
-        <v>677</v>
+        <v>710</v>
       </c>
     </row>
     <row r="316" ht="12.75" customHeight="1">
       <c r="A316" s="1"/>
       <c r="B316" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C316" s="1"/>
       <c r="D316" s="1"/>
@@ -21915,7 +22015,7 @@
     </row>
     <row r="319" ht="12.75" customHeight="1">
       <c r="A319" s="4" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -21955,13 +22055,13 @@
         <v>53.0</v>
       </c>
       <c r="I320" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="J320" s="11" t="s">
-        <v>679</v>
-      </c>
-      <c r="K320" s="5" t="s">
-        <v>680</v>
+        <v>711</v>
+      </c>
+      <c r="J320" s="12" t="s">
+        <v>712</v>
+      </c>
+      <c r="K320" s="8" t="s">
+        <v>713</v>
       </c>
       <c r="L320" s="1"/>
       <c r="M320" s="1"/>
@@ -21991,13 +22091,13 @@
         <v>54.0</v>
       </c>
       <c r="I321" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="J321" s="11" t="s">
-        <v>682</v>
-      </c>
-      <c r="K321" s="5" t="s">
-        <v>683</v>
+        <v>714</v>
+      </c>
+      <c r="J321" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="K321" s="8" t="s">
+        <v>716</v>
       </c>
       <c r="L321" s="1"/>
       <c r="M321" s="1"/>
@@ -22027,13 +22127,13 @@
         <v>55.0</v>
       </c>
       <c r="I322" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="J322" s="11" t="s">
-        <v>685</v>
-      </c>
-      <c r="K322" s="5" t="s">
-        <v>686</v>
+        <v>717</v>
+      </c>
+      <c r="J322" s="12" t="s">
+        <v>718</v>
+      </c>
+      <c r="K322" s="8" t="s">
+        <v>719</v>
       </c>
       <c r="L322" s="1"/>
       <c r="M322" s="1"/>
@@ -22063,13 +22163,13 @@
         <v>56.0</v>
       </c>
       <c r="I323" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="J323" s="11" t="s">
-        <v>688</v>
-      </c>
-      <c r="K323" s="5" t="s">
-        <v>689</v>
+        <v>720</v>
+      </c>
+      <c r="J323" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="K323" s="8" t="s">
+        <v>722</v>
       </c>
       <c r="L323" s="1"/>
       <c r="M323" s="1"/>
@@ -22099,13 +22199,13 @@
         <v>57.0</v>
       </c>
       <c r="I324" s="4" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="J324" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="K324" s="5" t="s">
-        <v>127</v>
+        <v>160</v>
+      </c>
+      <c r="K324" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="L324" s="1"/>
       <c r="M324" s="1"/>
@@ -22135,13 +22235,13 @@
         <v>58.0</v>
       </c>
       <c r="I325" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="J325" s="11" t="s">
-        <v>691</v>
-      </c>
-      <c r="K325" s="5" t="s">
-        <v>692</v>
+        <v>723</v>
+      </c>
+      <c r="J325" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="K325" s="8" t="s">
+        <v>725</v>
       </c>
       <c r="L325" s="1"/>
       <c r="M325" s="1"/>
@@ -22171,19 +22271,19 @@
         <v>59.0</v>
       </c>
       <c r="I326" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="J326" s="11" t="s">
-        <v>238</v>
+        <v>270</v>
+      </c>
+      <c r="J326" s="12" t="s">
+        <v>271</v>
       </c>
       <c r="K326" s="1" t="s">
-        <v>621</v>
+        <v>654</v>
       </c>
     </row>
     <row r="327" ht="12.75" customHeight="1">
       <c r="A327" s="1"/>
       <c r="B327" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C327" s="1"/>
       <c r="D327" s="1"/>
@@ -22265,7 +22365,7 @@
     </row>
     <row r="331" ht="12.75" customHeight="1">
       <c r="A331" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -22305,13 +22405,13 @@
         <v>45.0</v>
       </c>
       <c r="I332" s="4" t="s">
-        <v>693</v>
-      </c>
-      <c r="J332" s="11" t="s">
-        <v>694</v>
-      </c>
-      <c r="K332" s="5" t="s">
-        <v>695</v>
+        <v>726</v>
+      </c>
+      <c r="J332" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="K332" s="8" t="s">
+        <v>728</v>
       </c>
       <c r="L332" s="1"/>
       <c r="M332" s="1"/>
@@ -22341,13 +22441,13 @@
         <v>46.0</v>
       </c>
       <c r="I333" s="4" t="s">
-        <v>696</v>
+        <v>729</v>
       </c>
       <c r="J333" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="K333" s="5" t="s">
-        <v>698</v>
+        <v>730</v>
+      </c>
+      <c r="K333" s="8" t="s">
+        <v>731</v>
       </c>
       <c r="L333" s="1"/>
       <c r="M333" s="1"/>
@@ -22377,13 +22477,13 @@
         <v>50.0</v>
       </c>
       <c r="I334" s="4" t="s">
-        <v>699</v>
+        <v>732</v>
       </c>
       <c r="J334" s="4" t="s">
-        <v>700</v>
-      </c>
-      <c r="K334" s="5" t="s">
-        <v>701</v>
+        <v>733</v>
+      </c>
+      <c r="K334" s="8" t="s">
+        <v>734</v>
       </c>
       <c r="L334" s="1"/>
       <c r="M334" s="1"/>
@@ -22413,13 +22513,13 @@
         <v>47.0</v>
       </c>
       <c r="I335" s="4" t="s">
-        <v>702</v>
-      </c>
-      <c r="J335" s="11" t="s">
-        <v>703</v>
-      </c>
-      <c r="K335" s="5" t="s">
-        <v>704</v>
+        <v>735</v>
+      </c>
+      <c r="J335" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="K335" s="8" t="s">
+        <v>737</v>
       </c>
       <c r="L335" s="1"/>
       <c r="M335" s="1"/>
@@ -22449,13 +22549,13 @@
         <v>48.0</v>
       </c>
       <c r="I336" s="4" t="s">
-        <v>705</v>
+        <v>738</v>
       </c>
       <c r="J336" s="4" t="s">
-        <v>706</v>
-      </c>
-      <c r="K336" s="5" t="s">
-        <v>707</v>
+        <v>739</v>
+      </c>
+      <c r="K336" s="8" t="s">
+        <v>740</v>
       </c>
       <c r="L336" s="1"/>
       <c r="M336" s="1"/>
@@ -22485,19 +22585,19 @@
         <v>49.0</v>
       </c>
       <c r="I337" s="4" t="s">
-        <v>708</v>
+        <v>741</v>
       </c>
       <c r="J337" s="4" t="s">
-        <v>709</v>
+        <v>742</v>
       </c>
       <c r="K337" s="1" t="s">
-        <v>710</v>
+        <v>743</v>
       </c>
     </row>
     <row r="338" ht="12.75" customHeight="1">
       <c r="A338" s="1"/>
       <c r="B338" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C338" s="1"/>
       <c r="D338" s="1"/>
@@ -22567,7 +22667,7 @@
     </row>
     <row r="341" ht="12.75" customHeight="1">
       <c r="A341" s="4" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -22607,13 +22707,13 @@
         <v>1.0</v>
       </c>
       <c r="I342" s="4" t="s">
-        <v>711</v>
+        <v>744</v>
       </c>
       <c r="J342" s="4" t="s">
-        <v>712</v>
-      </c>
-      <c r="K342" s="5" t="s">
-        <v>713</v>
+        <v>745</v>
+      </c>
+      <c r="K342" s="8" t="s">
+        <v>746</v>
       </c>
       <c r="L342" s="1"/>
       <c r="M342" s="1"/>
@@ -22643,13 +22743,13 @@
         <v>2.0</v>
       </c>
       <c r="I343" s="4" t="s">
-        <v>714</v>
+        <v>747</v>
       </c>
       <c r="J343" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="K343" s="5" t="s">
-        <v>716</v>
+        <v>748</v>
+      </c>
+      <c r="K343" s="8" t="s">
+        <v>749</v>
       </c>
       <c r="L343" s="1"/>
       <c r="M343" s="1"/>
@@ -22679,13 +22779,13 @@
         <v>5.0</v>
       </c>
       <c r="I344" s="4" t="s">
-        <v>717</v>
+        <v>750</v>
       </c>
       <c r="J344" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="K344" s="5" t="s">
-        <v>719</v>
+        <v>751</v>
+      </c>
+      <c r="K344" s="8" t="s">
+        <v>752</v>
       </c>
       <c r="L344" s="1"/>
       <c r="M344" s="1"/>
@@ -22715,13 +22815,13 @@
         <v>6.0</v>
       </c>
       <c r="I345" s="4" t="s">
-        <v>720</v>
+        <v>753</v>
       </c>
       <c r="J345" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="K345" s="5" t="s">
-        <v>722</v>
+        <v>754</v>
+      </c>
+      <c r="K345" s="8" t="s">
+        <v>755</v>
       </c>
       <c r="L345" s="1"/>
       <c r="M345" s="1"/>
@@ -22751,13 +22851,13 @@
         <v>212.0</v>
       </c>
       <c r="I346" s="4" t="s">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="J346" s="4" t="s">
-        <v>724</v>
-      </c>
-      <c r="K346" s="5" t="s">
-        <v>725</v>
+        <v>757</v>
+      </c>
+      <c r="K346" s="8" t="s">
+        <v>758</v>
       </c>
       <c r="L346" s="1"/>
       <c r="M346" s="1"/>
@@ -22787,13 +22887,13 @@
         <v>52.0</v>
       </c>
       <c r="I347" s="4" t="s">
-        <v>726</v>
+        <v>759</v>
       </c>
       <c r="J347" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="K347" s="5" t="s">
-        <v>728</v>
+        <v>760</v>
+      </c>
+      <c r="K347" s="8" t="s">
+        <v>761</v>
       </c>
       <c r="L347" s="1"/>
       <c r="M347" s="1"/>
@@ -22823,13 +22923,13 @@
         <v>17.0</v>
       </c>
       <c r="I348" s="4" t="s">
-        <v>729</v>
+        <v>762</v>
       </c>
       <c r="J348" s="4" t="s">
-        <v>730</v>
-      </c>
-      <c r="K348" s="5" t="s">
-        <v>731</v>
+        <v>763</v>
+      </c>
+      <c r="K348" s="8" t="s">
+        <v>764</v>
       </c>
       <c r="L348" s="1"/>
       <c r="M348" s="1"/>
@@ -22859,19 +22959,19 @@
         <v>7.0</v>
       </c>
       <c r="I349" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="J349" s="11" t="s">
-        <v>238</v>
+        <v>270</v>
+      </c>
+      <c r="J349" s="12" t="s">
+        <v>271</v>
       </c>
       <c r="K349" s="1" t="s">
-        <v>621</v>
+        <v>654</v>
       </c>
     </row>
     <row r="350" ht="12.75" customHeight="1">
       <c r="A350" s="1"/>
       <c r="B350" s="4" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C350" s="1"/>
       <c r="D350" s="1"/>
@@ -22897,7 +22997,7 @@
     </row>
     <row r="352" ht="12.75" customHeight="1">
       <c r="A352" s="1" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -22914,10 +23014,10 @@
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
       <c r="D353" s="1" t="s">
-        <v>732</v>
+        <v>765</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>733</v>
+        <v>766</v>
       </c>
       <c r="F353" s="1"/>
       <c r="G353" s="1"/>
@@ -22937,13 +23037,13 @@
         <v>8.0</v>
       </c>
       <c r="I354" s="4" t="s">
-        <v>734</v>
+        <v>767</v>
       </c>
       <c r="J354" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="K354" s="5" t="s">
-        <v>736</v>
+        <v>768</v>
+      </c>
+      <c r="K354" s="8" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="355" ht="12.75" customHeight="1">
@@ -22958,19 +23058,19 @@
         <v>9.0</v>
       </c>
       <c r="I355" s="4" t="s">
-        <v>737</v>
+        <v>770</v>
       </c>
       <c r="J355" s="4" t="s">
-        <v>738</v>
-      </c>
-      <c r="K355" s="5" t="s">
-        <v>739</v>
+        <v>771</v>
+      </c>
+      <c r="K355" s="8" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="356" ht="12.75" customHeight="1">
       <c r="A356" s="1"/>
       <c r="B356" s="1" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C356" s="1"/>
       <c r="D356" s="1"/>
@@ -22981,13 +23081,13 @@
         <v>10.0</v>
       </c>
       <c r="I356" s="4" t="s">
-        <v>740</v>
+        <v>773</v>
       </c>
       <c r="J356" s="4" t="s">
-        <v>741</v>
-      </c>
-      <c r="K356" s="5" t="s">
-        <v>742</v>
+        <v>774</v>
+      </c>
+      <c r="K356" s="8" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="357" ht="12.75" customHeight="1">
@@ -23016,7 +23116,7 @@
     </row>
     <row r="359" ht="12.75" customHeight="1">
       <c r="A359" s="1" t="s">
-        <v>743</v>
+        <v>776</v>
       </c>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -23028,23 +23128,23 @@
         <v>11.0</v>
       </c>
       <c r="I359" s="1" t="s">
-        <v>744</v>
+        <v>777</v>
       </c>
       <c r="J359" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="K359" s="5" t="s">
-        <v>746</v>
+        <v>778</v>
+      </c>
+      <c r="K359" s="8" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="360" ht="12.75" customHeight="1">
       <c r="A360" s="1"/>
       <c r="B360" s="1" t="s">
-        <v>747</v>
+        <v>780</v>
       </c>
       <c r="C360" s="1"/>
       <c r="D360" s="1" t="s">
-        <v>525</v>
+        <v>558</v>
       </c>
       <c r="E360" s="1"/>
       <c r="F360" s="1"/>
@@ -23053,23 +23153,23 @@
         <v>12.0</v>
       </c>
       <c r="I360" s="1" t="s">
-        <v>748</v>
+        <v>781</v>
       </c>
       <c r="J360" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="K360" s="5" t="s">
-        <v>750</v>
+        <v>782</v>
+      </c>
+      <c r="K360" s="8" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="361" ht="12.75" customHeight="1">
       <c r="A361" s="1"/>
       <c r="B361" s="1" t="s">
-        <v>747</v>
+        <v>780</v>
       </c>
       <c r="C361" s="1"/>
       <c r="D361" s="1" t="s">
-        <v>525</v>
+        <v>558</v>
       </c>
       <c r="E361" s="1"/>
       <c r="F361" s="1"/>
@@ -23078,23 +23178,23 @@
         <v>13.0</v>
       </c>
       <c r="I361" s="1" t="s">
-        <v>751</v>
+        <v>784</v>
       </c>
       <c r="J361" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="K361" s="5" t="s">
-        <v>753</v>
+        <v>785</v>
+      </c>
+      <c r="K361" s="8" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="362" ht="12.75" customHeight="1">
       <c r="A362" s="1"/>
       <c r="B362" s="1" t="s">
-        <v>754</v>
+        <v>787</v>
       </c>
       <c r="C362" s="1"/>
       <c r="D362" s="1" t="s">
-        <v>525</v>
+        <v>558</v>
       </c>
       <c r="E362" s="1"/>
       <c r="F362" s="1"/>
@@ -23103,23 +23203,23 @@
         <v>14.0</v>
       </c>
       <c r="I362" s="1" t="s">
-        <v>755</v>
+        <v>788</v>
       </c>
       <c r="J362" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="K362" s="5" t="s">
-        <v>757</v>
+        <v>789</v>
+      </c>
+      <c r="K362" s="8" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="363" ht="12.75" customHeight="1">
       <c r="A363" s="1"/>
       <c r="B363" s="1" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C363" s="1"/>
       <c r="D363" s="1" t="s">
-        <v>758</v>
+        <v>791</v>
       </c>
       <c r="E363" s="1"/>
       <c r="F363" s="1"/>
@@ -23166,7 +23266,7 @@
     </row>
     <row r="367" ht="12.75" customHeight="1">
       <c r="A367" s="1" t="s">
-        <v>747</v>
+        <v>780</v>
       </c>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -23178,19 +23278,19 @@
         <v>15.0</v>
       </c>
       <c r="I367" s="1" t="s">
-        <v>759</v>
+        <v>792</v>
       </c>
       <c r="J367" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="K367" s="5" t="s">
-        <v>761</v>
+        <v>793</v>
+      </c>
+      <c r="K367" s="8" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="368" ht="12.75" customHeight="1">
       <c r="A368" s="1"/>
       <c r="B368" s="1" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C368" s="1"/>
       <c r="D368" s="1"/>
@@ -23227,7 +23327,7 @@
     </row>
     <row r="371" ht="12.75" customHeight="1">
       <c r="A371" s="1" t="s">
-        <v>754</v>
+        <v>787</v>
       </c>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -23251,19 +23351,19 @@
         <v>16.0</v>
       </c>
       <c r="I372" s="1" t="s">
-        <v>762</v>
+        <v>795</v>
       </c>
       <c r="J372" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="K372" s="5" t="s">
-        <v>764</v>
+        <v>796</v>
+      </c>
+      <c r="K372" s="8" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="373" ht="12.75" customHeight="1">
       <c r="A373" s="1"/>
       <c r="B373" s="1" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="C373" s="1"/>
       <c r="D373" s="1"/>
